--- a/Code/Results/Cases/Case_3_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36596368605133</v>
+        <v>12.03225138200131</v>
       </c>
       <c r="C2">
-        <v>7.121911144798459</v>
+        <v>4.482561356785101</v>
       </c>
       <c r="D2">
-        <v>5.869178288167838</v>
+        <v>7.15792718459619</v>
       </c>
       <c r="F2">
-        <v>37.05225641812524</v>
+        <v>37.47940862859942</v>
       </c>
       <c r="G2">
-        <v>2.125878255248512</v>
+        <v>3.694587258480427</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.66101427434976</v>
+        <v>11.4772871337697</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.41984281100499</v>
+        <v>11.83675915855333</v>
       </c>
       <c r="C3">
-        <v>6.650429885209816</v>
+        <v>4.328504866439691</v>
       </c>
       <c r="D3">
-        <v>5.90282904140294</v>
+        <v>7.154367573783979</v>
       </c>
       <c r="F3">
-        <v>35.74935173516632</v>
+        <v>37.17174655258061</v>
       </c>
       <c r="G3">
-        <v>2.134347414433153</v>
+        <v>3.697492045173542</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86862600762436</v>
+        <v>11.36047978666874</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80808248377967</v>
+        <v>11.71900950269414</v>
       </c>
       <c r="C4">
-        <v>6.34625936931984</v>
+        <v>4.232835808763559</v>
       </c>
       <c r="D4">
-        <v>5.923326653830787</v>
+        <v>7.151950977015856</v>
       </c>
       <c r="F4">
-        <v>34.95152878408843</v>
+        <v>36.98836362880832</v>
       </c>
       <c r="G4">
-        <v>2.139676093371791</v>
+        <v>3.699367698216931</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.35641322714785</v>
+        <v>11.29166155875524</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.5579967802637</v>
+        <v>11.67167023316293</v>
       </c>
       <c r="C5">
-        <v>6.218578526102945</v>
+        <v>4.193654857782745</v>
       </c>
       <c r="D5">
-        <v>5.931642961640972</v>
+        <v>7.150907660271398</v>
       </c>
       <c r="F5">
-        <v>34.62722974830598</v>
+        <v>36.91507507547308</v>
       </c>
       <c r="G5">
-        <v>2.141881504946937</v>
+        <v>3.700155283970505</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.14115467386562</v>
+        <v>11.26438049911395</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.52113627058582</v>
+        <v>11.66385056281122</v>
       </c>
       <c r="C6">
-        <v>6.197151013011195</v>
+        <v>4.187139441057168</v>
       </c>
       <c r="D6">
-        <v>5.933021795368892</v>
+        <v>7.150730869704082</v>
       </c>
       <c r="F6">
-        <v>34.57343829972577</v>
+        <v>36.9029941094659</v>
       </c>
       <c r="G6">
-        <v>2.142249806066036</v>
+        <v>3.700287468149636</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.10501497596187</v>
+        <v>11.25989751740477</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80464651975676</v>
+        <v>11.71836836601773</v>
       </c>
       <c r="C7">
-        <v>6.344552564718542</v>
+        <v>4.232308085916158</v>
       </c>
       <c r="D7">
-        <v>5.923438952893002</v>
+        <v>7.151937144095901</v>
       </c>
       <c r="F7">
-        <v>34.94715146682882</v>
+        <v>36.98736932998906</v>
       </c>
       <c r="G7">
-        <v>2.139705696894374</v>
+        <v>3.699378225660662</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.35353669334258</v>
+        <v>11.29129050513202</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.04609024503984</v>
+        <v>11.96441427168415</v>
       </c>
       <c r="C8">
-        <v>6.962366556546655</v>
+        <v>4.429710182644111</v>
       </c>
       <c r="D8">
-        <v>5.880818004000493</v>
+        <v>7.156747500928437</v>
       </c>
       <c r="F8">
-        <v>36.60272086144678</v>
+        <v>37.37221299430865</v>
       </c>
       <c r="G8">
-        <v>2.128772730665058</v>
+        <v>3.69556976259793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.39308575084134</v>
+        <v>11.4364300620723</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.23991226167966</v>
+        <v>12.46190536712846</v>
       </c>
       <c r="C9">
-        <v>8.059429251250595</v>
+        <v>4.805221218891453</v>
       </c>
       <c r="D9">
-        <v>5.795710072724757</v>
+        <v>7.164367597783221</v>
       </c>
       <c r="F9">
-        <v>39.85625583706751</v>
+        <v>38.16826505282251</v>
       </c>
       <c r="G9">
-        <v>2.108275229926281</v>
+        <v>3.68882842029537</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.23128881894111</v>
+        <v>11.74254223961419</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.71112854863694</v>
+        <v>12.83239244497279</v>
       </c>
       <c r="C10">
-        <v>8.798865981163186</v>
+        <v>5.070393826256428</v>
       </c>
       <c r="D10">
-        <v>5.731908895589193</v>
+        <v>7.168887211036988</v>
       </c>
       <c r="F10">
-        <v>42.24047142096166</v>
+        <v>38.77490886631035</v>
       </c>
       <c r="G10">
-        <v>2.093670936847618</v>
+        <v>3.684313527557756</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.46490179785088</v>
+        <v>11.97841259003044</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.35138673102534</v>
+        <v>13.00115805169017</v>
       </c>
       <c r="C11">
-        <v>9.12162204063312</v>
+        <v>5.188051146408537</v>
       </c>
       <c r="D11">
-        <v>5.702526717660698</v>
+        <v>7.170714585253955</v>
       </c>
       <c r="F11">
-        <v>43.322603475421</v>
+        <v>39.05484429879479</v>
       </c>
       <c r="G11">
-        <v>2.08709641396858</v>
+        <v>3.682353566557161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.0019963591126</v>
+        <v>12.08762895329144</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58979985038754</v>
+        <v>13.06502910285687</v>
       </c>
       <c r="C12">
-        <v>9.241960126811307</v>
+        <v>5.232131403295763</v>
       </c>
       <c r="D12">
-        <v>5.691341792904366</v>
+        <v>7.171374143143227</v>
       </c>
       <c r="F12">
-        <v>43.73199920028802</v>
+        <v>39.16135216870574</v>
       </c>
       <c r="G12">
-        <v>2.08461400924381</v>
+        <v>3.681624795552578</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.20203338159929</v>
+        <v>12.12922240789226</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.53863071098301</v>
+        <v>13.05127605007083</v>
       </c>
       <c r="C13">
-        <v>9.216125604847401</v>
+        <v>5.222659700680139</v>
       </c>
       <c r="D13">
-        <v>5.693753384869887</v>
+        <v>7.171233530760903</v>
       </c>
       <c r="F13">
-        <v>43.64384542817547</v>
+        <v>39.13839254893207</v>
       </c>
       <c r="G13">
-        <v>2.085148364321598</v>
+        <v>3.681781153627854</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.15909885035322</v>
+        <v>12.12025467404799</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.3710812648631</v>
+        <v>13.00641388990015</v>
       </c>
       <c r="C14">
-        <v>9.131559595691579</v>
+        <v>5.191687404366334</v>
       </c>
       <c r="D14">
-        <v>5.70160774151246</v>
+        <v>7.170769494858837</v>
       </c>
       <c r="F14">
-        <v>43.35629236606572</v>
+        <v>39.06359709207351</v>
       </c>
       <c r="G14">
-        <v>2.086892056750809</v>
+        <v>3.682293341538017</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.01851995445501</v>
+        <v>12.09104638010701</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.26793055175238</v>
+        <v>12.97892769940788</v>
       </c>
       <c r="C15">
-        <v>9.079517683187239</v>
+        <v>5.1726529519285</v>
       </c>
       <c r="D15">
-        <v>5.706410925868863</v>
+        <v>7.170481049446178</v>
       </c>
       <c r="F15">
-        <v>43.18010790993264</v>
+        <v>39.01784609362291</v>
       </c>
       <c r="G15">
-        <v>2.08796097446507</v>
+        <v>3.682608817302274</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.93197874086437</v>
+        <v>12.07318494614725</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.66871354073459</v>
+        <v>12.82136180480815</v>
       </c>
       <c r="C16">
-        <v>8.777505367314191</v>
+        <v>5.062640734302732</v>
       </c>
       <c r="D16">
-        <v>5.733821287233839</v>
+        <v>7.168763225615243</v>
       </c>
       <c r="F16">
-        <v>42.16969807249983</v>
+        <v>38.75668848250599</v>
       </c>
       <c r="G16">
-        <v>2.094101761881715</v>
+        <v>3.684443498255408</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.42932631562762</v>
+        <v>11.97131019792706</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.29377474051056</v>
+        <v>12.72470849453452</v>
       </c>
       <c r="C17">
-        <v>8.588794041976826</v>
+        <v>4.994355808697718</v>
       </c>
       <c r="D17">
-        <v>5.750539968458964</v>
+        <v>7.167651159526067</v>
       </c>
       <c r="F17">
-        <v>41.54917379386494</v>
+        <v>38.59744516857064</v>
       </c>
       <c r="G17">
-        <v>2.097884781926375</v>
+        <v>3.685593007176828</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.11487517032112</v>
+        <v>11.90927592740455</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.07538114937626</v>
+        <v>12.66914166580931</v>
       </c>
       <c r="C18">
-        <v>8.47896554856445</v>
+        <v>4.954802914515452</v>
       </c>
       <c r="D18">
-        <v>5.760122790162455</v>
+        <v>7.166989983169304</v>
       </c>
       <c r="F18">
-        <v>41.19203132634867</v>
+        <v>38.5062304858558</v>
       </c>
       <c r="G18">
-        <v>2.10006735114381</v>
+        <v>3.686263015914463</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.93173704992248</v>
+        <v>11.87377837520612</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.00096261643904</v>
+        <v>12.65033425616823</v>
       </c>
       <c r="C19">
-        <v>8.44155634128381</v>
+        <v>4.941364888664347</v>
       </c>
       <c r="D19">
-        <v>5.763361851008927</v>
+        <v>7.166762406135106</v>
       </c>
       <c r="F19">
-        <v>41.0710708600167</v>
+        <v>38.47541373042944</v>
       </c>
       <c r="G19">
-        <v>2.100807556130403</v>
+        <v>3.686491390269595</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.86933573875259</v>
+        <v>11.86179215543796</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33397014143953</v>
+        <v>12.73499526861462</v>
       </c>
       <c r="C20">
-        <v>8.609015335213229</v>
+        <v>5.001653902172254</v>
       </c>
       <c r="D20">
-        <v>5.748763733993171</v>
+        <v>7.167771767495049</v>
       </c>
       <c r="F20">
-        <v>41.61525422236654</v>
+        <v>38.61435827756574</v>
       </c>
       <c r="G20">
-        <v>2.097481400731992</v>
+        <v>3.685469725478851</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.14858360369759</v>
+        <v>11.91586094126471</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.42040309653265</v>
+        <v>13.01959253633795</v>
       </c>
       <c r="C21">
-        <v>9.156449133020701</v>
+        <v>5.20079792920513</v>
       </c>
       <c r="D21">
-        <v>5.699302372546749</v>
+        <v>7.170906670022992</v>
       </c>
       <c r="F21">
-        <v>43.44076403876356</v>
+        <v>39.08555324619529</v>
       </c>
       <c r="G21">
-        <v>2.086379718910484</v>
+        <v>3.682142535829654</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.05990131478031</v>
+        <v>12.099619490006</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.10697907388223</v>
+        <v>13.20534822140285</v>
       </c>
       <c r="C22">
-        <v>9.50329658297747</v>
+        <v>5.328169183341439</v>
       </c>
       <c r="D22">
-        <v>5.666631827540552</v>
+        <v>7.172766693860531</v>
       </c>
       <c r="F22">
-        <v>44.63163082828157</v>
+        <v>39.39640243588612</v>
       </c>
       <c r="G22">
-        <v>2.079164770553109</v>
+        <v>3.680046233135797</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.63604015281082</v>
+        <v>12.22107099943315</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.74264126433273</v>
+        <v>13.10625170548556</v>
       </c>
       <c r="C23">
-        <v>9.319150687747154</v>
+        <v>5.26045726924198</v>
       </c>
       <c r="D23">
-        <v>5.684102654678494</v>
+        <v>7.171791094076739</v>
       </c>
       <c r="F23">
-        <v>43.99623904622451</v>
+        <v>39.23025422560671</v>
       </c>
       <c r="G23">
-        <v>2.083012775003783</v>
+        <v>3.681157938640873</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.33028412033705</v>
+        <v>12.15613932727384</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.31580664490483</v>
+        <v>12.7303446113156</v>
       </c>
       <c r="C24">
-        <v>8.599877454985684</v>
+        <v>4.998355349304945</v>
       </c>
       <c r="D24">
-        <v>5.749566859313771</v>
+        <v>7.167717308668356</v>
       </c>
       <c r="F24">
-        <v>41.58538048722765</v>
+        <v>38.60671080783803</v>
       </c>
       <c r="G24">
-        <v>2.09766374530831</v>
+        <v>3.68552543265576</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.13335136776505</v>
+        <v>11.91288333395172</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.67158584368657</v>
+        <v>12.32614858671574</v>
       </c>
       <c r="C25">
-        <v>7.774591351048519</v>
+        <v>4.705276992164057</v>
       </c>
       <c r="D25">
-        <v>5.818931469358486</v>
+        <v>7.16249751600673</v>
       </c>
       <c r="F25">
-        <v>38.97659176963717</v>
+        <v>37.9488288561486</v>
       </c>
       <c r="G25">
-        <v>2.113731154371206</v>
+        <v>3.690574841759788</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.75494207539032</v>
+        <v>11.65764653851694</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_155/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.03225138200131</v>
+        <v>13.36596368605145</v>
       </c>
       <c r="C2">
-        <v>4.482561356785101</v>
+        <v>7.121911144798432</v>
       </c>
       <c r="D2">
-        <v>7.15792718459619</v>
+        <v>5.869178288167663</v>
       </c>
       <c r="F2">
-        <v>37.47940862859942</v>
+        <v>37.05225641812523</v>
       </c>
       <c r="G2">
-        <v>3.694587258480427</v>
+        <v>2.125878255248113</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.4772871337697</v>
+        <v>11.66101427434984</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.83675915855333</v>
+        <v>12.41984281100499</v>
       </c>
       <c r="C3">
-        <v>4.328504866439691</v>
+        <v>6.650429885209751</v>
       </c>
       <c r="D3">
-        <v>7.154367573783979</v>
+        <v>5.90282904140292</v>
       </c>
       <c r="F3">
-        <v>37.17174655258061</v>
+        <v>35.74935173516619</v>
       </c>
       <c r="G3">
-        <v>3.697492045173542</v>
+        <v>2.134347414433155</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.36047978666874</v>
+        <v>10.86862600762432</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71900950269414</v>
+        <v>11.80808248377961</v>
       </c>
       <c r="C4">
-        <v>4.232835808763559</v>
+        <v>6.346259369319862</v>
       </c>
       <c r="D4">
-        <v>7.151950977015856</v>
+        <v>5.923326653830719</v>
       </c>
       <c r="F4">
-        <v>36.98836362880832</v>
+        <v>34.95152878408866</v>
       </c>
       <c r="G4">
-        <v>3.699367698216931</v>
+        <v>2.139676093371791</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.29166155875524</v>
+        <v>10.35641322714781</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.67167023316293</v>
+        <v>11.5579967802637</v>
       </c>
       <c r="C5">
-        <v>4.193654857782745</v>
+        <v>6.218578526102809</v>
       </c>
       <c r="D5">
-        <v>7.150907660271398</v>
+        <v>5.931642961640978</v>
       </c>
       <c r="F5">
-        <v>36.91507507547308</v>
+        <v>34.62722974830614</v>
       </c>
       <c r="G5">
-        <v>3.700155283970505</v>
+        <v>2.141881504946936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.26438049911395</v>
+        <v>10.14115467386561</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.66385056281122</v>
+        <v>11.52113627058585</v>
       </c>
       <c r="C6">
-        <v>4.187139441057168</v>
+        <v>6.197151013010963</v>
       </c>
       <c r="D6">
-        <v>7.150730869704082</v>
+        <v>5.933021795369007</v>
       </c>
       <c r="F6">
-        <v>36.9029941094659</v>
+        <v>34.57343829972576</v>
       </c>
       <c r="G6">
-        <v>3.700287468149636</v>
+        <v>2.142249806066165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.25989751740477</v>
+        <v>10.10501497596175</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71836836601773</v>
+        <v>11.80464651975677</v>
       </c>
       <c r="C7">
-        <v>4.232308085916158</v>
+        <v>6.344552564718758</v>
       </c>
       <c r="D7">
-        <v>7.151937144095901</v>
+        <v>5.923438952892996</v>
       </c>
       <c r="F7">
-        <v>36.98736932998906</v>
+        <v>34.94715146682852</v>
       </c>
       <c r="G7">
-        <v>3.699378225660662</v>
+        <v>2.139705696894772</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.29129050513202</v>
+        <v>10.35353669334265</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.96441427168415</v>
+        <v>13.04609024503975</v>
       </c>
       <c r="C8">
-        <v>4.429710182644111</v>
+        <v>6.962366556546748</v>
       </c>
       <c r="D8">
-        <v>7.156747500928437</v>
+        <v>5.880818004000481</v>
       </c>
       <c r="F8">
-        <v>37.37221299430865</v>
+        <v>36.60272086144683</v>
       </c>
       <c r="G8">
-        <v>3.69556976259793</v>
+        <v>2.128772730665194</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.4364300620723</v>
+        <v>11.39308575084127</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.46190536712846</v>
+        <v>15.2399122616797</v>
       </c>
       <c r="C9">
-        <v>4.805221218891453</v>
+        <v>8.05942925125067</v>
       </c>
       <c r="D9">
-        <v>7.164367597783221</v>
+        <v>5.795710072724707</v>
       </c>
       <c r="F9">
-        <v>38.16826505282251</v>
+        <v>39.85625583706766</v>
       </c>
       <c r="G9">
-        <v>3.68882842029537</v>
+        <v>2.108275229926146</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.74254223961419</v>
+        <v>13.23128881894114</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.83239244497279</v>
+        <v>16.71112854863686</v>
       </c>
       <c r="C10">
-        <v>5.070393826256428</v>
+        <v>8.798865981163335</v>
       </c>
       <c r="D10">
-        <v>7.168887211036988</v>
+        <v>5.731908895589198</v>
       </c>
       <c r="F10">
-        <v>38.77490886631035</v>
+        <v>42.24047142096185</v>
       </c>
       <c r="G10">
-        <v>3.684313527557756</v>
+        <v>2.093670936847749</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.97841259003044</v>
+        <v>14.46490179785081</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.00115805169017</v>
+        <v>17.35138673102523</v>
       </c>
       <c r="C11">
-        <v>5.188051146408537</v>
+        <v>9.121622040633317</v>
       </c>
       <c r="D11">
-        <v>7.170714585253955</v>
+        <v>5.702526717660828</v>
       </c>
       <c r="F11">
-        <v>39.05484429879479</v>
+        <v>43.32260347542113</v>
       </c>
       <c r="G11">
-        <v>3.682353566557161</v>
+        <v>2.087096413968582</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.08762895329144</v>
+        <v>15.00199635911257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.06502910285687</v>
+        <v>17.58979985038747</v>
       </c>
       <c r="C12">
-        <v>5.232131403295763</v>
+        <v>9.241960126811456</v>
       </c>
       <c r="D12">
-        <v>7.171374143143227</v>
+        <v>5.691341792904381</v>
       </c>
       <c r="F12">
-        <v>39.16135216870574</v>
+        <v>43.73199920028802</v>
       </c>
       <c r="G12">
-        <v>3.681624795552578</v>
+        <v>2.084614009244205</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.12922240789226</v>
+        <v>15.2020333815993</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.05127605007083</v>
+        <v>17.53863071098309</v>
       </c>
       <c r="C13">
-        <v>5.222659700680139</v>
+        <v>9.216125604847585</v>
       </c>
       <c r="D13">
-        <v>7.171233530760903</v>
+        <v>5.693753384869794</v>
       </c>
       <c r="F13">
-        <v>39.13839254893207</v>
+        <v>43.64384542817578</v>
       </c>
       <c r="G13">
-        <v>3.681781153627854</v>
+        <v>2.085148364321997</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.12025467404799</v>
+        <v>15.15909885035331</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.00641388990015</v>
+        <v>17.37108126486318</v>
       </c>
       <c r="C14">
-        <v>5.191687404366334</v>
+        <v>9.131559595691614</v>
       </c>
       <c r="D14">
-        <v>7.170769494858837</v>
+        <v>5.701607741512415</v>
       </c>
       <c r="F14">
-        <v>39.06359709207351</v>
+        <v>43.35629236606589</v>
       </c>
       <c r="G14">
-        <v>3.682293341538017</v>
+        <v>2.086892056750682</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.09104638010701</v>
+        <v>15.01851995445508</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.97892769940788</v>
+        <v>17.26793055175244</v>
       </c>
       <c r="C15">
-        <v>5.1726529519285</v>
+        <v>9.079517683187388</v>
       </c>
       <c r="D15">
-        <v>7.170481049446178</v>
+        <v>5.706410925868547</v>
       </c>
       <c r="F15">
-        <v>39.01784609362291</v>
+        <v>43.18010790993252</v>
       </c>
       <c r="G15">
-        <v>3.682608817302274</v>
+        <v>2.087960974465064</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.07318494614725</v>
+        <v>14.93197874086445</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.82136180480815</v>
+        <v>16.66871354073464</v>
       </c>
       <c r="C16">
-        <v>5.062640734302732</v>
+        <v>8.777505367314207</v>
       </c>
       <c r="D16">
-        <v>7.168763225615243</v>
+        <v>5.733821287233679</v>
       </c>
       <c r="F16">
-        <v>38.75668848250599</v>
+        <v>42.16969807250012</v>
       </c>
       <c r="G16">
-        <v>3.684443498255408</v>
+        <v>2.094101761881713</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.97131019792706</v>
+        <v>14.42932631562771</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.72470849453452</v>
+        <v>16.2937747405105</v>
       </c>
       <c r="C17">
-        <v>4.994355808697718</v>
+        <v>8.588794041976874</v>
       </c>
       <c r="D17">
-        <v>7.167651159526067</v>
+        <v>5.750539968458855</v>
       </c>
       <c r="F17">
-        <v>38.59744516857064</v>
+        <v>41.54917379386499</v>
       </c>
       <c r="G17">
-        <v>3.685593007176828</v>
+        <v>2.097884781925845</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.90927592740455</v>
+        <v>14.11487517032106</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.66914166580931</v>
+        <v>16.07538114937632</v>
       </c>
       <c r="C18">
-        <v>4.954802914515452</v>
+        <v>8.478965548564608</v>
       </c>
       <c r="D18">
-        <v>7.166989983169304</v>
+        <v>5.760122790162142</v>
       </c>
       <c r="F18">
-        <v>38.5062304858558</v>
+        <v>41.19203132634858</v>
       </c>
       <c r="G18">
-        <v>3.686263015914463</v>
+        <v>2.100067351144207</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.87377837520612</v>
+        <v>13.93173704992256</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.65033425616823</v>
+        <v>16.00096261643906</v>
       </c>
       <c r="C19">
-        <v>4.941364888664347</v>
+        <v>8.441556341283812</v>
       </c>
       <c r="D19">
-        <v>7.166762406135106</v>
+        <v>5.763361851009059</v>
       </c>
       <c r="F19">
-        <v>38.47541373042944</v>
+        <v>41.07107086001673</v>
       </c>
       <c r="G19">
-        <v>3.686491390269595</v>
+        <v>2.100807556130268</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.86179215543796</v>
+        <v>13.8693357387526</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.73499526861462</v>
+        <v>16.33397014143954</v>
       </c>
       <c r="C20">
-        <v>5.001653902172254</v>
+        <v>8.609015335213185</v>
       </c>
       <c r="D20">
-        <v>7.167771767495049</v>
+        <v>5.748763733993092</v>
       </c>
       <c r="F20">
-        <v>38.61435827756574</v>
+        <v>41.6152542223665</v>
       </c>
       <c r="G20">
-        <v>3.685469725478851</v>
+        <v>2.097481400732121</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.91586094126471</v>
+        <v>14.14858360369756</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.01959253633795</v>
+        <v>17.42040309653267</v>
       </c>
       <c r="C21">
-        <v>5.20079792920513</v>
+        <v>9.156449133020688</v>
       </c>
       <c r="D21">
-        <v>7.170906670022992</v>
+        <v>5.699302372546764</v>
       </c>
       <c r="F21">
-        <v>39.08555324619529</v>
+        <v>43.44076403876358</v>
       </c>
       <c r="G21">
-        <v>3.682142535829654</v>
+        <v>2.086379718910486</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.099619490006</v>
+        <v>15.0599013147803</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.20534822140285</v>
+        <v>18.10697907388219</v>
       </c>
       <c r="C22">
-        <v>5.328169183341439</v>
+        <v>9.503296582977633</v>
       </c>
       <c r="D22">
-        <v>7.172766693860531</v>
+        <v>5.666631827540413</v>
       </c>
       <c r="F22">
-        <v>39.39640243588612</v>
+        <v>44.63163082828154</v>
       </c>
       <c r="G22">
-        <v>3.680046233135797</v>
+        <v>2.079164770553372</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.22107099943315</v>
+        <v>15.6360401528108</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.10625170548556</v>
+        <v>17.74264126433291</v>
       </c>
       <c r="C23">
-        <v>5.26045726924198</v>
+        <v>9.319150687747028</v>
       </c>
       <c r="D23">
-        <v>7.171791094076739</v>
+        <v>5.684102654678336</v>
       </c>
       <c r="F23">
-        <v>39.23025422560671</v>
+        <v>43.99623904622472</v>
       </c>
       <c r="G23">
-        <v>3.681157938640873</v>
+        <v>2.083012775003652</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.15613932727384</v>
+        <v>15.33028412033717</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.7303446113156</v>
+        <v>16.31580664490486</v>
       </c>
       <c r="C24">
-        <v>4.998355349304945</v>
+        <v>8.599877454985656</v>
       </c>
       <c r="D24">
-        <v>7.167717308668356</v>
+        <v>5.749566859313913</v>
       </c>
       <c r="F24">
-        <v>38.60671080783803</v>
+        <v>41.58538048722775</v>
       </c>
       <c r="G24">
-        <v>3.68552543265576</v>
+        <v>2.097663745308181</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.91288333395172</v>
+        <v>14.13335136776506</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.32614858671574</v>
+        <v>14.67158584368659</v>
       </c>
       <c r="C25">
-        <v>4.705276992164057</v>
+        <v>7.774591351048665</v>
       </c>
       <c r="D25">
-        <v>7.16249751600673</v>
+        <v>5.818931469358491</v>
       </c>
       <c r="F25">
-        <v>37.9488288561486</v>
+        <v>38.97659176963704</v>
       </c>
       <c r="G25">
-        <v>3.690574841759788</v>
+        <v>2.113731154371076</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.65764653851694</v>
+        <v>12.75494207539034</v>
       </c>
       <c r="N25">
         <v>0</v>
